--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1725594.939127848</v>
+        <v>1801124.608792653</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>50.36218625475002</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>61.63425920309675</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -859,22 +861,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>230.2634979541055</v>
       </c>
       <c r="V4" t="n">
-        <v>127.004412707233</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.2788623889627</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>68.90297685032057</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>65.25024693872075</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.8854510154498</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>355.5718542987858</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>110.8307642795449</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1303,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>25.20874520428384</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>57.68157701938573</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.665334888059</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>28.6359050148456</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>166.5434303332243</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2059,10 +2061,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>134.4910295281372</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.7660731567842</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>203.8435192151881</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>45.63891597907726</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>161.1706059301412</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>169.1477376595855</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0.7644211441614789</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>106.4954499794084</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,16 +3006,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>203.843519215189</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.7660731567842</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>11.82150965373822</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>15.75208669539955</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,16 +3948,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>95.50235849937884</v>
+        <v>103.3575834456749</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>411.9645167896915</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>128.8834778965561</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1646.746562480845</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C2" t="n">
-        <v>1646.746562480845</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
         <v>1210.087414675782</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2423.485734520778</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y2" t="n">
-        <v>2033.346402544967</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286581</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="U4" t="n">
-        <v>182.2302673832261</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1150.78176403888</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C5" t="n">
-        <v>1150.78176403888</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1105.957637232171</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>694.9717324425633</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>277.0079243407502</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1540.921096014692</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1540.921096014692</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>1150.78176403888</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="6">
@@ -4647,10 +4649,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>323.2572191628421</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>323.2572191628421</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>323.2572191628421</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>323.2572191628421</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>323.2572191628421</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>323.2572191628421</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>323.2572191628421</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X7" t="n">
-        <v>323.2572191628421</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y7" t="n">
-        <v>323.2572191628421</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1241.158393318536</v>
+        <v>1878.515311311824</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>1509.552794371412</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1151.287095764662</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1151.287095764662</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>740.3011909750544</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.992646913851</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.992646913851</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2001.223991643737</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1627.758233382657</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1627.758233382657</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.6911546495019</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C10" t="n">
-        <v>380.6911546495019</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D10" t="n">
-        <v>380.6911546495019</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E10" t="n">
-        <v>380.6911546495019</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>525.1020275000139</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>525.1020275000139</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610026</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="V10" t="n">
-        <v>380.6911546495019</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="W10" t="n">
-        <v>380.6911546495019</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="X10" t="n">
-        <v>380.6911546495019</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.6911546495019</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5032,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5124,22 +5126,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1196.088769018223</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M12" t="n">
-        <v>1503.408902298185</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1833.271529962218</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2112.811595180915</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.0071030383442</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>675.0071030383442</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>675.0071030383442</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>527.0940094559511</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>527.0940094559511</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>358.9186877757717</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.0071030383442</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,43 +5269,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5343,16 +5345,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5361,10 +5363,10 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
         <v>1843.901542059518</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>385.5899330013836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>385.5899330013836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>385.5899330013836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>237.6768394189905</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>237.6768394189905</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>237.6768394189905</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5464,22 +5466,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>675.0071030383442</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>385.5899330013836</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>385.5899330013836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>385.5899330013836</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5601,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>675.0071030383442</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="C19" t="n">
-        <v>506.7814158330672</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D19" t="n">
-        <v>356.6647764207315</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>675.0071030383442</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>675.0071030383442</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="X19" t="n">
-        <v>675.0071030383442</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="Y19" t="n">
-        <v>675.0071030383442</v>
+        <v>395.5481934947356</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5743,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,19 +5752,19 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5783,16 +5785,16 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5820,7 +5822,7 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
         <v>125.4002551675024</v>
@@ -5829,22 +5831,22 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.4856756861153</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="C22" t="n">
-        <v>699.5494927582084</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="D22" t="n">
-        <v>549.4328533458727</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="E22" t="n">
-        <v>401.5197597634796</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="F22" t="n">
-        <v>401.5197597634796</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="G22" t="n">
-        <v>233.3444380833002</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380589</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625201</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.43553563633</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>4231.246603057544</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>3976.562114851657</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557902</v>
+        <v>3687.144944814697</v>
       </c>
       <c r="X22" t="n">
-        <v>1270.926719659885</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="Y22" t="n">
-        <v>1050.134140516355</v>
+        <v>3459.155393916679</v>
       </c>
     </row>
     <row r="23">
@@ -5963,61 +5965,61 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6026,13 +6028,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3778.208216256917</v>
+        <v>423.0269196488988</v>
       </c>
       <c r="C25" t="n">
-        <v>3609.27203332901</v>
+        <v>423.0269196488988</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>423.0269196488988</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799325</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471153</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.921157035276</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.921157035276</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.921157035276</v>
       </c>
       <c r="V25" t="n">
-        <v>4698.055981165665</v>
+        <v>933.2366688293895</v>
       </c>
       <c r="W25" t="n">
-        <v>4408.638811128704</v>
+        <v>643.8194987924289</v>
       </c>
       <c r="X25" t="n">
-        <v>4180.649260230687</v>
+        <v>643.8194987924289</v>
       </c>
       <c r="Y25" t="n">
-        <v>3959.856681087157</v>
+        <v>423.0269196488988</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6309,16 +6311,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.155393916675</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916675</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916675</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916675</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916675</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
         <v>4411.546387431056</v>
@@ -6412,22 +6414,22 @@
         <v>4549.85945949167</v>
       </c>
       <c r="T28" t="n">
-        <v>4379.003158825422</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U28" t="n">
-        <v>4379.003158825422</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V28" t="n">
-        <v>4379.003158825422</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="W28" t="n">
-        <v>4089.585988788462</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="X28" t="n">
-        <v>3861.596437890445</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="Y28" t="n">
-        <v>3640.803858746915</v>
+        <v>4036.173262924875</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6482,31 +6484,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>616.8574922980929</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>466.7408528857571</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>466.7408528857571</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>466.7408528857571</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6652,19 +6654,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>785.7936752259998</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6695,16 +6697,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6716,34 +6718,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>410.8745301331628</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380588</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.7234906252</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636329</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403512</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431059</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436456</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>4231.246603057543</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>3976.562114851657</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>3687.144944814696</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916678</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6929,7 +6931,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6953,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>244.1070389581962</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C37" t="n">
-        <v>244.1070389581962</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D37" t="n">
-        <v>244.1070389581962</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>233.3444380833002</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7123,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1486.975351715743</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1197.846712929301</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>943.1622247234138</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>653.7450546864533</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X37" t="n">
-        <v>425.7555037884359</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y37" t="n">
-        <v>425.7555037884359</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="38">
@@ -7172,19 +7174,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7251,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>857.5427825698952</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>113.1282901425076</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7390,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7491,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1943.227873734288</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>434.3285960683721</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7594,25 +7596,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1091.454128248029</v>
+        <v>1283.439567679652</v>
       </c>
       <c r="U43" t="n">
-        <v>1091.454128248029</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="V43" t="n">
-        <v>836.769640042142</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="W43" t="n">
-        <v>836.769640042142</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="X43" t="n">
-        <v>836.769640042142</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="Y43" t="n">
-        <v>615.9770608986119</v>
+        <v>994.3109288932102</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7640,34 +7642,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7728,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1257.655835911085</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1257.655835911085</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U46" t="n">
-        <v>1257.655835911085</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>1257.655835911085</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>1257.655835911085</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>1029.666285013068</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8295,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>277.6717966208062</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>73.53204524670008</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>29.47535963978262</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>124.3400780863228</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>29.47535963978262</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>127.6461250100651</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>182.0340742867947</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>73.53204524670002</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2484934794771618</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="14">
@@ -23659,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>120.2779233526905</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7033907654035829</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>152.0319688084538</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>14.14775521075197</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338929</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7950466674919</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24421,13 +24423,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>90.96703739368684</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>52.39982339880376</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>217.8202322079333</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>59.99811848396914</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338568</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>82.39383318338838</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>14.14775521075197</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25363,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>209.726051404651</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>130.6818759511696</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25597,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>126.0452025590104</v>
+        <v>118.1899776127144</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26025,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>69.03733208704713</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.1983061399</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061399</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061399</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061401</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651772</v>
@@ -26320,40 +26322,40 @@
         <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="H2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="H2" t="n">
-        <v>488786.3246721358</v>
-      </c>
       <c r="I2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="J2" t="n">
+        <v>488786.3246721361</v>
+      </c>
+      <c r="K2" t="n">
         <v>488786.324672136</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="K2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="L2" t="n">
-        <v>488786.3246721358</v>
-      </c>
       <c r="M2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.324672136</v>
       </c>
       <c r="N2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="O2" t="n">
+        <v>488786.3246721361</v>
+      </c>
+      <c r="P2" t="n">
         <v>488786.324672136</v>
-      </c>
-      <c r="P2" t="n">
-        <v>488786.3246721359</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865243</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
         <v>22174.60758687071</v>
@@ -26442,13 +26444,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
@@ -26473,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-325308.7188993015</v>
       </c>
       <c r="C6" t="n">
+        <v>264659.1603152434</v>
+      </c>
+      <c r="D6" t="n">
         <v>264659.1603152433</v>
       </c>
-      <c r="D6" t="n">
-        <v>264659.1603152434</v>
-      </c>
       <c r="E6" t="n">
-        <v>-150535.6453403473</v>
+        <v>-150535.6453403475</v>
       </c>
       <c r="F6" t="n">
         <v>374624.3911365486</v>
       </c>
       <c r="G6" t="n">
-        <v>374624.3911365486</v>
+        <v>374624.3911365484</v>
       </c>
       <c r="H6" t="n">
-        <v>374624.3911365484</v>
+        <v>374624.3911365485</v>
       </c>
       <c r="I6" t="n">
+        <v>374624.3911365485</v>
+      </c>
+      <c r="J6" t="n">
+        <v>198201.1719439558</v>
+      </c>
+      <c r="K6" t="n">
         <v>374624.3911365487</v>
-      </c>
-      <c r="J6" t="n">
-        <v>198201.1719439556</v>
-      </c>
-      <c r="K6" t="n">
-        <v>374624.3911365485</v>
       </c>
       <c r="L6" t="n">
         <v>374624.3911365485</v>
       </c>
       <c r="M6" t="n">
-        <v>239823.3759027114</v>
+        <v>239823.3759027115</v>
       </c>
       <c r="N6" t="n">
-        <v>374624.3911365485</v>
+        <v>374624.3911365486</v>
       </c>
       <c r="O6" t="n">
+        <v>374624.3911365488</v>
+      </c>
+      <c r="P6" t="n">
         <v>374624.3911365487</v>
-      </c>
-      <c r="P6" t="n">
-        <v>374624.3911365486</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>304.3208553659329</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>308.0968414753723</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>56.01837628787223</v>
       </c>
       <c r="V4" t="n">
-        <v>125.133230616595</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.4041792317203</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>255.0197959140366</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>102.0595553203302</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27818,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>16.6375473211412</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>58.21231572200918</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>140.3934032287444</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>186.9367937457351</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>194.4560663044423</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28867,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="21">
@@ -28989,7 +28991,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29098,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29223,7 +29225,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29755,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29946,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>-3.582082778545252e-12</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>526.9295015768305</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35731,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>621.6037559756885</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.309841178968</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>280.6254601782248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799246</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>274.915516674262</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006117972</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>326.2624260966948</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>334.7395399415897</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>389.1274892183194</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>355.8957474878082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1801124.608792653</v>
+        <v>1794107.593900942</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>138.3038958997682</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>61.63425920309675</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>125.8721928563317</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>230.2634979541055</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>206.0020113488501</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>68.90297685032057</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>54.68092754773846</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.8854510154498</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>69.78067050156575</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>355.5718542987858</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>25.20874520428384</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>101.7806877295497</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>67.08991894886655</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>42.93943942157695</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>134.4910295281372</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151881</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>45.63891597907726</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002232</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,16 +2772,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.7644211441614789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174145</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>106.4954499794084</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>203.843519215189</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.7660731567842</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>15.75208669539955</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002228</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T43" t="n">
-        <v>103.3575834456749</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>118.4898845065126</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1210.087414675782</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1600.226746651594</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1210.087414675782</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,16 +4418,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022.963088632153</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632153</v>
+        <v>331.20325038051</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>181.0866109681743</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2255.552480504987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>2022.963088632153</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>2022.963088632153</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1860.708406770827</v>
+        <v>686.9351304176944</v>
       </c>
       <c r="C5" t="n">
-        <v>1491.745889830415</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>1491.745889830415</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1105.957637232171</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>694.9717324425633</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>277.0079243407502</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y5" t="n">
-        <v>2247.308246834948</v>
+        <v>1073.534970481816</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>415.489254012808</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>415.489254012808</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>415.489254012808</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>470.7225141620388</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1878.515311311824</v>
+        <v>1322.340737411354</v>
       </c>
       <c r="C8" t="n">
-        <v>1509.552794371412</v>
+        <v>953.3782204709426</v>
       </c>
       <c r="D8" t="n">
-        <v>1151.287095764662</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>1151.287095764662</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>740.3011909750544</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,46 +4810,46 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332394</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304457</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942548</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942548</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1695.806495672434</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>1322.340737411354</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>1322.340737411354</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545819</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>525.1020275000139</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>525.1020275000139</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9284171545819</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.9284171545819</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5126,22 +5126,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5232,19 +5232,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5275,19 +5275,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,13 +5296,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5345,40 +5345,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5463,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>585.5099430858311</v>
       </c>
     </row>
     <row r="17">
@@ -5506,10 +5506,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028562</v>
@@ -5518,7 +5518,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5603,19 +5603,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>395.5481934947356</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,13 +5770,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231263</v>
@@ -5797,7 +5797,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,16 +5819,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126481</v>
@@ -5837,7 +5837,7 @@
         <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643586</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916679</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916679</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916679</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916679</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380589</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625201</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.43553563633</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929844</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.14914771935</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>4231.246603057544</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V22" t="n">
-        <v>3976.562114851657</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W22" t="n">
-        <v>3687.144944814697</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X22" t="n">
-        <v>3459.155393916679</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916679</v>
+        <v>213.9110074201014</v>
       </c>
     </row>
     <row r="23">
@@ -5968,37 +5968,37 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6007,28 +6007,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6059,37 +6059,37 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298184</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>423.0269196488988</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>423.0269196488988</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>423.0269196488988</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799325</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471153</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119724</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035276</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.921157035276</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1187.921157035276</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>933.2366688293895</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>643.8194987924289</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>643.8194987924289</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>423.0269196488988</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C28" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688123</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799416</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471245</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974672</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980069</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585752</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>4326.074044281177</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4036.945405494735</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>4036.945405494735</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>4036.945405494735</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4036.945405494735</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y28" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,19 +6448,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
@@ -6469,46 +6469,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>785.7936752259998</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C31" t="n">
-        <v>616.8574922980929</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D31" t="n">
-        <v>466.7408528857571</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E31" t="n">
-        <v>466.7408528857571</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F31" t="n">
-        <v>466.7408528857571</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>1075.21084526296</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>785.7936752259998</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7936752259998</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y31" t="n">
-        <v>785.7936752259998</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6712,19 +6712,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231263</v>
@@ -6770,31 +6770,31 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380588</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.7234906252</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636329</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403512</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431059</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436456</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929844</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.14914771935</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U34" t="n">
-        <v>4231.246603057543</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V34" t="n">
-        <v>3976.562114851657</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>3687.144944814696</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>3459.155393916678</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916678</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,37 +6931,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>868.4856756861153</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C37" t="n">
-        <v>699.5494927582084</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D37" t="n">
-        <v>549.4328533458727</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E37" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F37" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>233.3444380833002</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>1270.926719659885</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y37" t="n">
-        <v>1050.134140516355</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="38">
@@ -7171,43 +7171,43 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M39" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2205.048458376741</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>263.2449295548433</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C40" t="n">
-        <v>263.2449295548433</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D40" t="n">
-        <v>113.1282901425076</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585752</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y40" t="n">
-        <v>444.8933943850831</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
@@ -7411,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>994.3109288932102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7572,13 +7572,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1283.439567679652</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>994.3109288932102</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>994.3109288932102</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>994.3109288932102</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>994.3109288932102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>994.3109288932102</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,28 +7639,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7809,13 +7809,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870662</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8537,10 +8537,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516213</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>277.6717966208068</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>277.6717966208055</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776742</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298287</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>127.6461250100651</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>158.6197364401706</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>124.3073816770509</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>152.0319688084538</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271386</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338929</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>100.7950466674919</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338004</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>217.8202322079333</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>59.99811848396914</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338838</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>14.14775521075197</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>130.6818759511696</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338049</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T43" t="n">
-        <v>118.1899776127144</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542474</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26076,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061401</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>901202.1983061399</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>901202.1983061399</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>901202.1983061399</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061401</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651771</v>
@@ -26328,34 +26328,34 @@
         <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="H2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="J2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="J2" t="n">
-        <v>488786.3246721361</v>
-      </c>
       <c r="K2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="L2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="M2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="N2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="O2" t="n">
-        <v>488786.3246721361</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865244</v>
+        <v>165632.8677865243</v>
       </c>
       <c r="E4" t="n">
         <v>22174.60758687071</v>
@@ -26435,31 +26435,31 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687077</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687064</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687065</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-325308.7188993015</v>
       </c>
       <c r="C6" t="n">
-        <v>264659.1603152434</v>
+        <v>264659.1603152433</v>
       </c>
       <c r="D6" t="n">
-        <v>264659.1603152433</v>
+        <v>264659.160315243</v>
       </c>
       <c r="E6" t="n">
-        <v>-150535.6453403475</v>
+        <v>-151510.2366000687</v>
       </c>
       <c r="F6" t="n">
-        <v>374624.3911365486</v>
+        <v>373649.7998768269</v>
       </c>
       <c r="G6" t="n">
-        <v>374624.3911365484</v>
+        <v>373649.7998768269</v>
       </c>
       <c r="H6" t="n">
-        <v>374624.3911365485</v>
+        <v>373649.7998768269</v>
       </c>
       <c r="I6" t="n">
-        <v>374624.3911365485</v>
+        <v>373649.7998768265</v>
       </c>
       <c r="J6" t="n">
-        <v>198201.1719439558</v>
+        <v>197226.5806842338</v>
       </c>
       <c r="K6" t="n">
-        <v>374624.3911365487</v>
+        <v>373649.7998768269</v>
       </c>
       <c r="L6" t="n">
-        <v>374624.3911365485</v>
+        <v>373649.7998768269</v>
       </c>
       <c r="M6" t="n">
-        <v>239823.3759027115</v>
+        <v>238848.7846429897</v>
       </c>
       <c r="N6" t="n">
-        <v>374624.3911365486</v>
+        <v>373649.7998768269</v>
       </c>
       <c r="O6" t="n">
-        <v>374624.3911365488</v>
+        <v>373649.7998768268</v>
       </c>
       <c r="P6" t="n">
-        <v>374624.3911365487</v>
+        <v>373649.7998768269</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,19 +26813,19 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>226.9689958712394</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>308.0968414753723</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>20.56176979023748</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>56.01837628787223</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>159.2708804221574</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>255.0197959140366</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>125.1510526341988</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>16.6375473211412</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>284.9023711191172</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>58.21231572200918</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>186.9367937457351</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594874</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28991,7 +28991,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29100,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29225,7 +29225,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29459,7 +29459,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>5.090328158985358e-12</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29757,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29948,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-1.392663762089796e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30422,7 +30422,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>4.901797486430345e-12</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32557,7 +32557,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32566,10 +32566,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32645,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770697</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279154</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35506,13 +35506,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>621.6037559756885</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>588.096173671273</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -35980,13 +35980,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.309841178968</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>588.0961736712719</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799246</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336986</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299157</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006117972</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
         <v>59.82538970349858</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>334.7395399415897</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118057</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1794107.593900942</v>
+        <v>1799046.856749974</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>138.3038958997682</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>380.9334423827077</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>125.8721928563317</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>206.0020113488501</v>
+        <v>8.468524200619214</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.68092754773846</v>
+        <v>160.9608410339006</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>69.78067050156575</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>164.724136469744</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>26.32882004050039</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>101.7806877295497</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>244.1832419466385</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>67.08991894886655</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>42.93943942157695</v>
+        <v>113.377886391386</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>115.5269768002174</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>69.67056468630049</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002232</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750002</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>256.3432811758636</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U34" t="n">
-        <v>224.8952567231525</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>60.21206158291315</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002228</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>219.6802071026611</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>118.4898845065126</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.85017494300128</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2247.308246834948</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>2074.424788715902</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1716.159090109152</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1330.370837510907</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>919.3849327212999</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.308246834948</v>
+        <v>2443.387305656314</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>331.20325038051</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>181.0866109681743</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4530,10 +4530,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>686.9351304176944</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C5" t="n">
-        <v>478.8522906713811</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1837.140060718708</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1463.674302457628</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1073.534970481816</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>415.489254012808</v>
+        <v>565.5422760913831</v>
       </c>
       <c r="C7" t="n">
-        <v>415.489254012808</v>
+        <v>396.6060931634762</v>
       </c>
       <c r="D7" t="n">
-        <v>415.489254012808</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E7" t="n">
-        <v>415.489254012808</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
         <v>99.59950625323012</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>470.7225141620388</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>470.7225141620388</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1322.340737411354</v>
+        <v>829.562656169633</v>
       </c>
       <c r="C8" t="n">
-        <v>953.3782204709426</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224077</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332394</v>
+        <v>2530.761074382118</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304457</v>
+        <v>2530.761074382118</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942548</v>
+        <v>2276.999289020209</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942548</v>
+        <v>1945.936401676639</v>
       </c>
       <c r="W8" t="n">
-        <v>1695.806495672434</v>
+        <v>1593.167746406525</v>
       </c>
       <c r="X8" t="n">
-        <v>1322.340737411354</v>
+        <v>1219.701988145445</v>
       </c>
       <c r="Y8" t="n">
-        <v>1322.340737411354</v>
+        <v>829.562656169633</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.063382757265</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>546.4805193761946</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036448</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036448</v>
+        <v>227.427697035952</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036448</v>
+        <v>227.427697035952</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036448</v>
+        <v>80.53774953804162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>80.53774953804162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>80.53774953804162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>80.53774953804162</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,40 +5026,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.2699138005285</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>1052.346521133416</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>762.9293510964552</v>
       </c>
       <c r="X13" t="n">
-        <v>597.9183786307682</v>
+        <v>762.9293510964552</v>
       </c>
       <c r="Y13" t="n">
-        <v>597.9183786307682</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,13 +5296,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5345,40 +5345,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636248</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>585.5099430858311</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5463,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227918</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V16" t="n">
-        <v>874.9271131227918</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W16" t="n">
-        <v>585.5099430858311</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="X16" t="n">
-        <v>585.5099430858311</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="Y16" t="n">
-        <v>585.5099430858311</v>
+        <v>674.7185717878253</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822458</v>
@@ -5518,7 +5518,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1503.408902298185</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1833.271529962218</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954967</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5779,22 +5779,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636247</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
         <v>2317.834075963124</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213.9110074201014</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C22" t="n">
-        <v>213.9110074201014</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D22" t="n">
-        <v>213.9110074201014</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E22" t="n">
-        <v>213.9110074201014</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5913,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1428.541962793963</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1228.621952709515</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1228.621952709515</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609662</v>
+        <v>939.4933139230729</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550793</v>
+        <v>939.4933139230729</v>
       </c>
       <c r="W22" t="n">
-        <v>441.9005583181187</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201014</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.9110074201014</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="23">
@@ -5968,34 +5968,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6007,28 +6007,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1503.408902298184</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,19 +6165,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
         <v>869.3083006011506</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395484</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688123</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799416</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471245</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974672</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980069</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585752</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473451</v>
       </c>
       <c r="T28" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,28 +6448,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6478,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6715,22 +6715,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557903</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U34" t="n">
-        <v>1271.749344574921</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>1017.064856369034</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6949,19 +6949,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028589</v>
+        <v>792.456816243504</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028589</v>
+        <v>623.5206333155971</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028589</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028589</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028589</v>
+        <v>792.456816243504</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028589</v>
+        <v>792.456816243504</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7186,40 +7186,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585752</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,10 +7399,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E43" t="n">
         <v>97.21709146028584</v>
@@ -7572,13 +7572,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1440.481750413457</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1240.561740329009</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1016.776325118515</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>727.647686332073</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655742</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286137</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>437.6964226305963</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>216.9038434870662</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516213</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9251,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>277.6717966208068</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>85.30006332127834</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208072</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>277.6717966208055</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776742</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776744</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298287</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>7.954401377189527</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>158.6197364401706</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>124.3073816770509</v>
+        <v>53.86893470724181</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>113.0824928447104</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>29.89407122271386</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>40.29378771749231</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338004</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39383318338909</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>29.89407122271371</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25128,10 +25128,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U34" t="n">
-        <v>61.34209567542487</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>88.4034114352992</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,19 +25362,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338049</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,13 +25788,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>32.45743622116692</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>61.34209567542474</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>52.11417746079152</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061399</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.1983061399</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061401</v>
       </c>
     </row>
   </sheetData>
@@ -26316,28 +26316,28 @@
         <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="G2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="H2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="I2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="J2" t="n">
         <v>488786.3246721358</v>
-      </c>
-      <c r="J2" t="n">
-        <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
         <v>488786.3246721359</v>
@@ -26352,10 +26352,10 @@
         <v>488786.3246721359</v>
       </c>
       <c r="O2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="P2" t="n">
         <v>488786.3246721358</v>
-      </c>
-      <c r="P2" t="n">
-        <v>488786.3246721359</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865243</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
         <v>22174.60758687071</v>
@@ -26435,31 +26435,31 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687064</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687065</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26475,40 +26475,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-325308.7188993015</v>
+        <v>-325308.7188993014</v>
       </c>
       <c r="C6" t="n">
         <v>264659.1603152433</v>
       </c>
       <c r="D6" t="n">
-        <v>264659.160315243</v>
+        <v>264659.1603152434</v>
       </c>
       <c r="E6" t="n">
-        <v>-151510.2366000687</v>
+        <v>-150633.1044663197</v>
       </c>
       <c r="F6" t="n">
-        <v>373649.7998768269</v>
+        <v>374526.9320105765</v>
       </c>
       <c r="G6" t="n">
-        <v>373649.7998768269</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="H6" t="n">
-        <v>373649.7998768269</v>
+        <v>374526.9320105765</v>
       </c>
       <c r="I6" t="n">
-        <v>373649.7998768265</v>
+        <v>374526.9320105765</v>
       </c>
       <c r="J6" t="n">
-        <v>197226.5806842338</v>
+        <v>198103.7128179834</v>
       </c>
       <c r="K6" t="n">
-        <v>373649.7998768269</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="L6" t="n">
-        <v>373649.7998768269</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="M6" t="n">
-        <v>238848.7846429897</v>
+        <v>239725.9167767393</v>
       </c>
       <c r="N6" t="n">
-        <v>373649.7998768269</v>
+        <v>374526.9320105763</v>
       </c>
       <c r="O6" t="n">
-        <v>373649.7998768268</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="P6" t="n">
-        <v>373649.7998768269</v>
+        <v>374526.9320105763</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,19 +26813,19 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990174</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990171</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545561</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>226.9689958712394</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>32.85072763808728</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>20.56176979023748</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.2708804221574</v>
+        <v>356.8043675703883</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27666,7 +27666,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>125.1510526341988</v>
+        <v>18.87113914803669</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>284.9023711191172</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481162</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>9.691576339227566</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853696</v>
+        <v>18.87113914803661</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9289676594874</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29459,7 +29459,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>5.090328158985358e-12</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29477,7 +29477,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30422,7 +30422,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>4.901797486430345e-12</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396483</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32557,7 +32557,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32566,10 +32566,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32645,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,37 +32949,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,37 +33186,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,37 +33423,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,37 +33660,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,37 +33897,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,10 +35023,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770697</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279154</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35971,22 +35971,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>588.096173671273</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>334.5577682773026</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523318</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>588.0961736712719</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336986</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299157</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187099</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118057</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
